--- a/data/Sample/owasa.xlsx
+++ b/data/Sample/owasa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\TriangleWaterSupplyDashboard\data\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF74A9A6-E9FB-41D5-939F-9685A4323AA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C58FC9E-59F3-4AF6-B95F-E975738506A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7290" yWindow="4470" windowWidth="18690" windowHeight="10080" tabRatio="999" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7290" yWindow="4470" windowWidth="18690" windowHeight="10080" tabRatio="999" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GUIDE" sheetId="9" r:id="rId1"/>
@@ -2010,7 +2010,7 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -6728,7 +6728,7 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
